--- a/biology/Biologie cellulaire et moléculaire/DOCK_(protéine)/DOCK_(protéine).xlsx
+++ b/biology/Biologie cellulaire et moléculaire/DOCK_(protéine)/DOCK_(protéine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DOCK_(prot%C3%A9ine)</t>
+          <t>DOCK_(protéine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>DOCK (pour « Dedicator of cytokinesis ») est une famille de protéines intervenant dans la signalisation cellulaire et agissant comme un facteur d'échange de guanosine diphosphate en guanosine triphosphate[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>DOCK (pour « Dedicator of cytokinesis ») est une famille de protéines intervenant dans la signalisation cellulaire et agissant comme un facteur d'échange de guanosine diphosphate en guanosine triphosphate. 
 Elles sont classées en quatre sous familles
 DOCK-A
 DOCK1
